--- a/Morphology/TLPR21_Morphology/TLPR21_Calice_density_all.xlsx
+++ b/Morphology/TLPR21_Morphology/TLPR21_Calice_density_all.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/Morphology/TLPR21_Morphology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD83952-C6E0-8148-B973-C281F021CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6250D84-49F6-6F49-B4A0-BFD139219C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14220"/>
+    <workbookView xWindow="15120" yWindow="2100" windowWidth="10480" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TLPR21_Calice_density_all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="309">
   <si>
     <t>colony_id</t>
   </si>
@@ -823,9 +836,6 @@
     <t>30PP1ML</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing? </t>
-  </si>
-  <si>
     <t>30PP2ML</t>
   </si>
   <si>
@@ -941,14 +951,23 @@
   </si>
   <si>
     <t>55PP7T</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing </t>
+  </si>
+  <si>
+    <t>no good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1427,9 +1446,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1784,14 +1804,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="H277" sqref="H277"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="102" workbookViewId="0">
+      <selection activeCell="F268" sqref="F268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1800,7 +1824,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1814,7 +1838,7 @@
       <c r="B2" s="1">
         <v>2.786</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>35</v>
       </c>
       <c r="D2" s="1">
@@ -1828,7 +1852,7 @@
       <c r="B3" s="1">
         <v>2.5059999999999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>39</v>
       </c>
       <c r="D3" s="1">
@@ -1842,7 +1866,7 @@
       <c r="B4" s="1">
         <v>2.2330000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>32</v>
       </c>
       <c r="D4" s="1">
@@ -1856,7 +1880,7 @@
       <c r="B5" s="1">
         <v>2.5950000000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>38</v>
       </c>
       <c r="D5" s="1">
@@ -1870,7 +1894,7 @@
       <c r="B6" s="1">
         <v>1.5149999999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>19</v>
       </c>
       <c r="D6" s="1">
@@ -1884,7 +1908,7 @@
       <c r="B7" s="1">
         <v>13.741</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>41</v>
       </c>
       <c r="D7" s="1">
@@ -1898,7 +1922,7 @@
       <c r="B8" s="1">
         <v>4.0119999999999996</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>44</v>
       </c>
       <c r="D8" s="1">
@@ -1912,7 +1936,7 @@
       <c r="B9" s="1">
         <v>3.488</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>37</v>
       </c>
       <c r="D9" s="1">
@@ -1926,7 +1950,7 @@
       <c r="B10" s="1">
         <v>2.9710000000000001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>31</v>
       </c>
       <c r="D10" s="1">
@@ -1940,7 +1964,7 @@
       <c r="B11" s="1">
         <v>4.1859999999999999</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>41</v>
       </c>
       <c r="D11" s="1">
@@ -1954,7 +1978,7 @@
       <c r="B12" s="1">
         <v>3.8170000000000002</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>44</v>
       </c>
       <c r="D12" s="1">
@@ -1968,7 +1992,7 @@
       <c r="B13" s="1">
         <v>3.9580000000000002</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>39</v>
       </c>
       <c r="D13" s="1">
@@ -1982,7 +2006,7 @@
       <c r="B14" s="1">
         <v>3.6349999999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>40</v>
       </c>
       <c r="D14" s="1">
@@ -1996,7 +2020,7 @@
       <c r="B15" s="1">
         <v>2.4820000000000002</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>35</v>
       </c>
       <c r="D15" s="1">
@@ -2010,7 +2034,7 @@
       <c r="B16" s="1">
         <v>2.7879999999999998</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>32</v>
       </c>
       <c r="D16" s="1">
@@ -2024,7 +2048,7 @@
       <c r="B17" s="1">
         <v>1.5249999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>23</v>
       </c>
       <c r="D17" s="1">
@@ -2038,7 +2062,7 @@
       <c r="B18" s="1">
         <v>0.32400000000000001</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="1">
@@ -2052,7 +2076,7 @@
       <c r="B19" s="1">
         <v>2.984</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>34</v>
       </c>
       <c r="D19" s="1">
@@ -2066,7 +2090,7 @@
       <c r="B20" s="1">
         <v>3.04</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>34</v>
       </c>
       <c r="D20" s="1">
@@ -2080,7 +2104,7 @@
       <c r="B21" s="1">
         <v>4.218</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>26</v>
       </c>
       <c r="D21" s="1">
@@ -2094,7 +2118,7 @@
       <c r="B22" s="1">
         <v>0.96499999999999997</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>19</v>
       </c>
       <c r="D22" s="1">
@@ -2108,7 +2132,7 @@
       <c r="B23" s="1">
         <v>0.27800000000000002</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="1">
@@ -2122,7 +2146,7 @@
       <c r="B24" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>8</v>
       </c>
       <c r="D24" s="1">
@@ -2136,7 +2160,7 @@
       <c r="B25" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="1">
@@ -2150,7 +2174,7 @@
       <c r="B26" s="1">
         <v>2.5390000000000001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>32</v>
       </c>
       <c r="D26" s="1">
@@ -2164,7 +2188,7 @@
       <c r="B27" s="1">
         <v>1.4790000000000001</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>17</v>
       </c>
       <c r="D27" s="1">
@@ -2178,7 +2202,7 @@
       <c r="B28" s="1">
         <v>2.1389999999999998</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>25</v>
       </c>
       <c r="D28" s="1">
@@ -2192,7 +2216,7 @@
       <c r="B29" s="1">
         <v>1.17</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>11</v>
       </c>
       <c r="D29" s="1">
@@ -2206,7 +2230,7 @@
       <c r="B30" s="1">
         <v>2.4849999999999999</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>34</v>
       </c>
       <c r="D30" s="1">
@@ -2220,7 +2244,7 @@
       <c r="B31" s="1">
         <v>1.9650000000000001</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>23</v>
       </c>
       <c r="D31" s="1">
@@ -2234,7 +2258,7 @@
       <c r="B32" s="1">
         <v>3.1520000000000001</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>29</v>
       </c>
       <c r="D32" s="1">
@@ -2248,7 +2272,7 @@
       <c r="B33" s="1">
         <v>1.18</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>16</v>
       </c>
       <c r="D33" s="1">
@@ -2262,7 +2286,7 @@
       <c r="B34" s="1">
         <v>2.5289999999999999</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>26</v>
       </c>
       <c r="D34" s="1">
@@ -2276,7 +2300,7 @@
       <c r="B35" s="1">
         <v>2.3559999999999999</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>19</v>
       </c>
       <c r="D35" s="1">
@@ -2290,7 +2314,7 @@
       <c r="B36" s="1">
         <v>2.39</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>21</v>
       </c>
       <c r="D36" s="1">
@@ -2304,7 +2328,7 @@
       <c r="B37" s="1">
         <v>2.3410000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>23</v>
       </c>
       <c r="D37" s="1">
@@ -2318,7 +2342,7 @@
       <c r="B38" s="1">
         <v>1.9139999999999999</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>21</v>
       </c>
       <c r="D38" s="1">
@@ -2332,7 +2356,7 @@
       <c r="B39" s="1">
         <v>2.762</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>33</v>
       </c>
       <c r="D39" s="1">
@@ -2346,7 +2370,7 @@
       <c r="B40" s="1">
         <v>1.9970000000000001</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>17</v>
       </c>
       <c r="D40" s="1">
@@ -2360,7 +2384,7 @@
       <c r="B41" s="1">
         <v>2.202</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>12</v>
       </c>
       <c r="D41" s="1">
@@ -2374,7 +2398,7 @@
       <c r="B42" s="1">
         <v>2.1240000000000001</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>7</v>
       </c>
       <c r="D42" s="1">
@@ -2388,7 +2412,7 @@
       <c r="B43" s="1">
         <v>2.0390000000000001</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>25</v>
       </c>
       <c r="D43" s="1">
@@ -2402,7 +2426,7 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
@@ -2416,7 +2440,7 @@
       <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
@@ -2430,7 +2454,7 @@
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D46" t="s">
@@ -2444,7 +2468,7 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D47" t="s">
@@ -2458,7 +2482,7 @@
       <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D48" t="s">
@@ -2472,7 +2496,7 @@
       <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D49" t="s">
@@ -2486,7 +2510,7 @@
       <c r="B50" t="s">
         <v>47</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D50" t="s">
@@ -2500,7 +2524,7 @@
       <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D51" t="s">
@@ -2514,7 +2538,7 @@
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D52" t="s">
@@ -2528,7 +2552,7 @@
       <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D53" t="s">
@@ -2542,7 +2566,7 @@
       <c r="B54" t="s">
         <v>47</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D54" t="s">
@@ -2556,7 +2580,7 @@
       <c r="B55" t="s">
         <v>47</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D55" t="s">
@@ -2570,7 +2594,7 @@
       <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D56" t="s">
@@ -2584,7 +2608,7 @@
       <c r="B57" t="s">
         <v>47</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D57" t="s">
@@ -2598,7 +2622,7 @@
       <c r="B58" t="s">
         <v>47</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D58" t="s">
@@ -2612,7 +2636,7 @@
       <c r="B59" t="s">
         <v>47</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D59" t="s">
@@ -2626,7 +2650,7 @@
       <c r="B60" t="s">
         <v>47</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D60" t="s">
@@ -2640,7 +2664,7 @@
       <c r="B61" t="s">
         <v>47</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D61" t="s">
@@ -2654,7 +2678,7 @@
       <c r="B62" t="s">
         <v>47</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D62" t="s">
@@ -2668,7 +2692,7 @@
       <c r="B63" t="s">
         <v>47</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D63" t="s">
@@ -2682,7 +2706,7 @@
       <c r="B64" t="s">
         <v>47</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D64" t="s">
@@ -2696,7 +2720,7 @@
       <c r="B65" t="s">
         <v>47</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D65" t="s">
@@ -2710,7 +2734,7 @@
       <c r="B66" t="s">
         <v>47</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D66" t="s">
@@ -2724,7 +2748,7 @@
       <c r="B67" t="s">
         <v>47</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D67" t="s">
@@ -2738,7 +2762,7 @@
       <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D68" t="s">
@@ -2752,7 +2776,7 @@
       <c r="B69" t="s">
         <v>47</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D69" t="s">
@@ -2766,7 +2790,7 @@
       <c r="B70" t="s">
         <v>47</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D70" t="s">
@@ -2780,7 +2804,7 @@
       <c r="B71" t="s">
         <v>47</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D71" t="s">
@@ -2794,7 +2818,7 @@
       <c r="B72" t="s">
         <v>47</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D72" t="s">
@@ -2808,7 +2832,7 @@
       <c r="B73" t="s">
         <v>47</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D73" t="s">
@@ -2822,7 +2846,7 @@
       <c r="B74" t="s">
         <v>47</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D74" t="s">
@@ -2836,7 +2860,7 @@
       <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D75" t="s">
@@ -2850,7 +2874,7 @@
       <c r="B76" t="s">
         <v>47</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D76" t="s">
@@ -2864,7 +2888,7 @@
       <c r="B77" t="s">
         <v>47</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D77" t="s">
@@ -2878,7 +2902,7 @@
       <c r="B78" t="s">
         <v>47</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D78" t="s">
@@ -2892,7 +2916,7 @@
       <c r="B79" t="s">
         <v>47</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D79" t="s">
@@ -2906,7 +2930,7 @@
       <c r="B80" t="s">
         <v>47</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D80" t="s">
@@ -2920,7 +2944,7 @@
       <c r="B81" t="s">
         <v>47</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D81" t="s">
@@ -2934,7 +2958,7 @@
       <c r="B82" t="s">
         <v>47</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D82" t="s">
@@ -2948,7 +2972,7 @@
       <c r="B83" t="s">
         <v>47</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D83" t="s">
@@ -2962,7 +2986,7 @@
       <c r="B84" t="s">
         <v>47</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D84" t="s">
@@ -2976,7 +3000,7 @@
       <c r="B85" t="s">
         <v>47</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D85" t="s">
@@ -2990,7 +3014,7 @@
       <c r="B86" t="s">
         <v>47</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D86" t="s">
@@ -3004,7 +3028,7 @@
       <c r="B87" t="s">
         <v>47</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D87" t="s">
@@ -3018,7 +3042,7 @@
       <c r="B88" s="1">
         <v>3.6419999999999999</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>10</v>
       </c>
       <c r="D88" s="1">
@@ -3032,7 +3056,7 @@
       <c r="B89" s="1">
         <v>1.1539999999999999</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>3</v>
       </c>
       <c r="D89" s="1">
@@ -3046,7 +3070,7 @@
       <c r="B90" s="1">
         <v>3.7770000000000001</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>7</v>
       </c>
       <c r="D90" s="1">
@@ -3060,7 +3084,7 @@
       <c r="B91" s="1">
         <v>6.15</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>11</v>
       </c>
       <c r="D91" s="1">
@@ -3074,7 +3098,7 @@
       <c r="B92" s="1">
         <v>3.5979999999999999</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>8</v>
       </c>
       <c r="D92" s="1">
@@ -3088,7 +3112,7 @@
       <c r="B93" s="1">
         <v>2.839</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>6</v>
       </c>
       <c r="D93" s="1">
@@ -3102,7 +3126,7 @@
       <c r="B94" s="1">
         <v>7.2329999999999997</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>9</v>
       </c>
       <c r="D94" s="1">
@@ -3116,7 +3140,7 @@
       <c r="B95" s="1">
         <v>2.6890000000000001</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>4</v>
       </c>
       <c r="D95" s="1">
@@ -3130,7 +3154,7 @@
       <c r="B96" s="1">
         <v>4.9459999999999997</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>4</v>
       </c>
       <c r="D96" s="1">
@@ -3144,7 +3168,7 @@
       <c r="B97" s="1">
         <v>2.5670000000000002</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>5</v>
       </c>
       <c r="D97" s="1">
@@ -3158,7 +3182,7 @@
       <c r="B98" s="1">
         <v>5.3220000000000001</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>3</v>
       </c>
       <c r="D98" s="1">
@@ -3172,7 +3196,7 @@
       <c r="B99" s="1">
         <v>2.1640000000000001</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>5</v>
       </c>
       <c r="D99" s="1">
@@ -3186,7 +3210,7 @@
       <c r="B100" s="1">
         <v>6.1070000000000002</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>10</v>
       </c>
       <c r="D100" s="1">
@@ -3200,7 +3224,7 @@
       <c r="B101" s="1">
         <v>1.46</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>2</v>
       </c>
       <c r="D101" s="1">
@@ -3214,7 +3238,7 @@
       <c r="B102" s="1">
         <v>5.2880000000000003</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>9</v>
       </c>
       <c r="D102" s="1">
@@ -3228,7 +3252,7 @@
       <c r="B103" s="1">
         <v>3.3889999999999998</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>5</v>
       </c>
       <c r="D103" s="1">
@@ -3242,7 +3266,7 @@
       <c r="B104" s="1">
         <v>4.2480000000000002</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>4</v>
       </c>
       <c r="D104" s="1">
@@ -3256,7 +3280,7 @@
       <c r="B105" s="1">
         <v>6.3739999999999997</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>11</v>
       </c>
       <c r="D105" s="1">
@@ -3270,7 +3294,7 @@
       <c r="B106" s="1">
         <v>1.68</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>2</v>
       </c>
       <c r="D106" s="1">
@@ -3284,7 +3308,7 @@
       <c r="B107" s="1">
         <v>6.181</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>4</v>
       </c>
       <c r="D107" s="1">
@@ -3298,7 +3322,7 @@
       <c r="B108" s="1">
         <v>11.917999999999999</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>13</v>
       </c>
       <c r="D108" s="1">
@@ -3312,7 +3336,7 @@
       <c r="B109" s="1">
         <v>6.61</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>11</v>
       </c>
       <c r="D109" s="1">
@@ -3326,7 +3350,7 @@
       <c r="B110" s="1">
         <v>1.8220000000000001</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>3</v>
       </c>
       <c r="D110" s="1">
@@ -3340,7 +3364,7 @@
       <c r="B111" s="1">
         <v>3.4449999999999998</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>8</v>
       </c>
       <c r="D111" s="1">
@@ -3354,7 +3378,7 @@
       <c r="B112" s="1">
         <v>2.202</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>5</v>
       </c>
       <c r="D112" s="1">
@@ -3368,7 +3392,7 @@
       <c r="B113" s="1">
         <v>3.395</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>7</v>
       </c>
       <c r="D113" s="1">
@@ -3382,7 +3406,7 @@
       <c r="B114" s="1">
         <v>3.121</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>5</v>
       </c>
       <c r="D114" s="1">
@@ -3396,7 +3420,7 @@
       <c r="B115" s="1">
         <v>1.7789999999999999</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>6</v>
       </c>
       <c r="D115" s="1">
@@ -3410,7 +3434,7 @@
       <c r="B116" s="1">
         <v>6.5510000000000002</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>9</v>
       </c>
       <c r="D116" s="1">
@@ -3424,7 +3448,7 @@
       <c r="B117" s="1">
         <v>6.0389999999999997</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>9</v>
       </c>
       <c r="D117" s="1">
@@ -3438,7 +3462,7 @@
       <c r="B118" s="1">
         <v>7.0449999999999999</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>7</v>
       </c>
       <c r="D118" s="1">
@@ -3452,7 +3476,7 @@
       <c r="B119" s="1">
         <v>3.5640000000000001</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>5</v>
       </c>
       <c r="D119" s="1">
@@ -3466,7 +3490,7 @@
       <c r="B120" s="1">
         <v>4.5949999999999998</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>4</v>
       </c>
       <c r="D120" s="1">
@@ -3480,7 +3504,7 @@
       <c r="B121" s="1">
         <v>3.5680000000000001</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>6</v>
       </c>
       <c r="D121" s="1">
@@ -3494,7 +3518,7 @@
       <c r="B122" s="1">
         <v>2.5649999999999999</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>2</v>
       </c>
       <c r="D122" s="1">
@@ -3508,7 +3532,7 @@
       <c r="B123" s="1">
         <v>3.4079999999999999</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>7</v>
       </c>
       <c r="D123" s="1">
@@ -3522,7 +3546,7 @@
       <c r="B124" s="1">
         <v>5.7649999999999997</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>9</v>
       </c>
       <c r="D124" s="1">
@@ -3536,7 +3560,7 @@
       <c r="B125" s="1">
         <v>4.3780000000000001</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>8</v>
       </c>
       <c r="D125" s="1">
@@ -3550,7 +3574,7 @@
       <c r="B126" s="1">
         <v>3.1120000000000001</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>4</v>
       </c>
       <c r="D126" s="1">
@@ -3564,7 +3588,7 @@
       <c r="B127" s="1">
         <v>4.3440000000000003</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>4</v>
       </c>
       <c r="D127" s="1">
@@ -3578,7 +3602,7 @@
       <c r="B128" s="1">
         <v>2.173</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>18</v>
       </c>
       <c r="D128" s="1">
@@ -3592,7 +3616,7 @@
       <c r="B129" s="1">
         <v>1.95</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>17</v>
       </c>
       <c r="D129" s="1">
@@ -3606,7 +3630,7 @@
       <c r="B130" s="1">
         <v>1.373</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>12</v>
       </c>
       <c r="D130" s="1">
@@ -3620,7 +3644,7 @@
       <c r="B131" s="1">
         <v>1.34</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>13</v>
       </c>
       <c r="D131" s="1">
@@ -3634,7 +3658,7 @@
       <c r="B132" s="1">
         <v>2.3359999999999999</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>18</v>
       </c>
       <c r="D132" s="1">
@@ -3648,7 +3672,7 @@
       <c r="B133" s="1">
         <v>1.8220000000000001</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>17</v>
       </c>
       <c r="D133" s="1">
@@ -3662,7 +3686,7 @@
       <c r="B134" s="1">
         <v>1.2729999999999999</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>12</v>
       </c>
       <c r="D134" s="1">
@@ -3676,7 +3700,7 @@
       <c r="B135" s="1">
         <v>1.2869999999999999</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>9</v>
       </c>
       <c r="D135" s="1">
@@ -3690,7 +3714,7 @@
       <c r="B136" s="1">
         <v>1.0149999999999999</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>9</v>
       </c>
       <c r="D136" s="1">
@@ -3704,7 +3728,7 @@
       <c r="B137" s="1">
         <v>1.2190000000000001</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>8</v>
       </c>
       <c r="D137" s="1">
@@ -3718,7 +3742,7 @@
       <c r="B138" s="1">
         <v>1.9159999999999999</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>15</v>
       </c>
       <c r="D138" s="1">
@@ -3732,7 +3756,7 @@
       <c r="B139" s="1">
         <v>0.65</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>6</v>
       </c>
       <c r="D139" s="1">
@@ -3746,7 +3770,7 @@
       <c r="B140" s="1">
         <v>1.468</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>9</v>
       </c>
       <c r="D140" s="1">
@@ -3760,7 +3784,7 @@
       <c r="B141" s="1">
         <v>2.6840000000000002</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>16</v>
       </c>
       <c r="D141" s="1">
@@ -3774,7 +3798,7 @@
       <c r="B142" s="1">
         <v>1.901</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>14</v>
       </c>
       <c r="D142" s="1">
@@ -3788,7 +3812,7 @@
       <c r="B143" s="1">
         <v>2.1880000000000002</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>16</v>
       </c>
       <c r="D143" s="1">
@@ -3802,7 +3826,7 @@
       <c r="B144" s="1">
         <v>1.5389999999999999</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>13</v>
       </c>
       <c r="D144" s="1">
@@ -3816,7 +3840,7 @@
       <c r="B145" s="1">
         <v>3.1739999999999999</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>19</v>
       </c>
       <c r="D145" s="1">
@@ -3830,7 +3854,7 @@
       <c r="B146" s="1">
         <v>2.2509999999999999</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>20</v>
       </c>
       <c r="D146" s="1">
@@ -3844,7 +3868,7 @@
       <c r="B147" s="1">
         <v>2.149</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>14</v>
       </c>
       <c r="D147" s="1">
@@ -3858,7 +3882,7 @@
       <c r="B148" s="1">
         <v>1.863</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>18</v>
       </c>
       <c r="D148" s="1">
@@ -3888,7 +3912,7 @@
       <c r="B151" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>8</v>
       </c>
       <c r="D151" s="1">
@@ -3910,7 +3934,7 @@
       <c r="B153" s="1">
         <v>2.2829999999999999</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>18</v>
       </c>
       <c r="D153" s="1">
@@ -3924,7 +3948,7 @@
       <c r="B154" s="1">
         <v>1.337</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>12</v>
       </c>
       <c r="D154" s="1">
@@ -3938,7 +3962,7 @@
       <c r="B155" s="1">
         <v>1.962</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>14</v>
       </c>
       <c r="D155" s="1">
@@ -3952,7 +3976,7 @@
       <c r="B156" s="1">
         <v>1.7749999999999999</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>12</v>
       </c>
       <c r="D156" s="1">
@@ -3966,7 +3990,7 @@
       <c r="B157" s="1">
         <v>1.9059999999999999</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>10</v>
       </c>
       <c r="D157" s="1">
@@ -3980,7 +4004,7 @@
       <c r="B158" s="1">
         <v>2.2469999999999999</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>17</v>
       </c>
       <c r="D158" s="1">
@@ -3994,7 +4018,7 @@
       <c r="B159" s="1">
         <v>1.694</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>16</v>
       </c>
       <c r="D159" s="1">
@@ -4008,7 +4032,7 @@
       <c r="B160" s="1">
         <v>2.3460000000000001</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>23</v>
       </c>
       <c r="D160" s="1">
@@ -4022,7 +4046,7 @@
       <c r="B161" s="1">
         <v>2.0590000000000002</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>11</v>
       </c>
       <c r="D161" s="1">
@@ -4036,7 +4060,7 @@
       <c r="B162" s="1">
         <v>2.911</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>14</v>
       </c>
       <c r="D162" s="1">
@@ -4050,7 +4074,7 @@
       <c r="B163" s="1">
         <v>3.4630000000000001</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>19</v>
       </c>
       <c r="D163" s="1">
@@ -4064,7 +4088,7 @@
       <c r="B164" s="1">
         <v>2.6230000000000002</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>17</v>
       </c>
       <c r="D164" s="1">
@@ -4078,7 +4102,7 @@
       <c r="B165" s="1">
         <v>2.7080000000000002</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>13</v>
       </c>
       <c r="D165" s="1">
@@ -4092,7 +4116,7 @@
       <c r="B166" s="1">
         <v>2.8340000000000001</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>15</v>
       </c>
       <c r="D166" s="1">
@@ -4106,7 +4130,7 @@
       <c r="B167" s="1">
         <v>2.1840000000000002</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>14</v>
       </c>
       <c r="D167" s="1">
@@ -4120,7 +4144,7 @@
       <c r="B168" s="1">
         <v>0.72899999999999998</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>6</v>
       </c>
       <c r="D168" s="1">
@@ -4134,7 +4158,7 @@
       <c r="B169" s="1">
         <v>2.113</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>10</v>
       </c>
       <c r="D169" s="1">
@@ -4148,7 +4172,7 @@
       <c r="B170" s="1">
         <v>2.3580000000000001</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>10</v>
       </c>
       <c r="D170" s="1">
@@ -4162,7 +4186,7 @@
       <c r="B171" s="1">
         <v>2.0419999999999998</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>18</v>
       </c>
       <c r="D171" s="1">
@@ -4176,7 +4200,7 @@
       <c r="B172" s="1">
         <v>2.7829999999999999</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>20</v>
       </c>
       <c r="D172" s="1">
@@ -4190,7 +4214,7 @@
       <c r="B173" s="1">
         <v>1.772</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>16</v>
       </c>
       <c r="D173" s="1">
@@ -4204,7 +4228,7 @@
       <c r="B174" s="1">
         <v>1.8680000000000001</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>19</v>
       </c>
       <c r="D174" s="1">
@@ -4218,7 +4242,7 @@
       <c r="B175" s="1">
         <v>2.1669999999999998</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>17</v>
       </c>
       <c r="D175" s="1">
@@ -4232,7 +4256,7 @@
       <c r="B176" s="1">
         <v>1.6</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>12</v>
       </c>
       <c r="D176" s="1">
@@ -4246,7 +4270,7 @@
       <c r="B177" s="1">
         <v>1.3779999999999999</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>10</v>
       </c>
       <c r="D177" s="1">
@@ -4260,7 +4284,7 @@
       <c r="B178" s="1">
         <v>1.7150000000000001</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>12</v>
       </c>
       <c r="D178" s="1">
@@ -4274,7 +4298,7 @@
       <c r="B179" s="1">
         <v>1.885</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>17</v>
       </c>
       <c r="D179" s="1">
@@ -4288,7 +4312,7 @@
       <c r="B180" s="1">
         <v>2.1379999999999999</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>14</v>
       </c>
       <c r="D180" s="1">
@@ -4302,7 +4326,7 @@
       <c r="B181" s="1">
         <v>1.073</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>6</v>
       </c>
       <c r="D181" s="1">
@@ -4316,7 +4340,7 @@
       <c r="B182" s="1">
         <v>2.6659999999999999</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>15</v>
       </c>
       <c r="D182" s="1">
@@ -4330,7 +4354,7 @@
       <c r="B183" s="1">
         <v>1.744</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>7</v>
       </c>
       <c r="D183" s="1">
@@ -4344,7 +4368,7 @@
       <c r="B184" s="1">
         <v>1.8220000000000001</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>10</v>
       </c>
       <c r="D184" s="1">
@@ -4358,7 +4382,7 @@
       <c r="B185" s="1">
         <v>2.0750000000000002</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>15</v>
       </c>
       <c r="D185" s="1">
@@ -4372,7 +4396,7 @@
       <c r="B186" s="1">
         <v>1.4630000000000001</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>8</v>
       </c>
       <c r="D186" s="1">
@@ -4386,7 +4410,7 @@
       <c r="B187" s="1">
         <v>2.2389999999999999</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>12</v>
       </c>
       <c r="D187" s="1">
@@ -4400,7 +4424,7 @@
       <c r="B188" s="1">
         <v>2.2189999999999999</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>12</v>
       </c>
       <c r="D188" s="1">
@@ -4414,7 +4438,7 @@
       <c r="B189" s="1">
         <v>1.9019999999999999</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>13</v>
       </c>
       <c r="D189" s="1">
@@ -4428,7 +4452,7 @@
       <c r="B190" s="1">
         <v>0.8</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>5</v>
       </c>
       <c r="D190" s="1">
@@ -4442,7 +4466,7 @@
       <c r="B191" s="1">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>5</v>
       </c>
       <c r="D191" s="1">
@@ -4456,7 +4480,7 @@
       <c r="B192" s="1">
         <v>2.5129999999999999</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>19</v>
       </c>
       <c r="D192" s="1">
@@ -4470,7 +4494,7 @@
       <c r="B193" s="1">
         <v>2.0219999999999998</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>18</v>
       </c>
       <c r="D193" s="1">
@@ -4484,7 +4508,7 @@
       <c r="B194" s="1">
         <v>2.9489999999999998</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>22</v>
       </c>
       <c r="D194" s="1">
@@ -4498,7 +4522,7 @@
       <c r="B195" s="1">
         <v>1.512</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>14</v>
       </c>
       <c r="D195" s="1">
@@ -4512,7 +4536,7 @@
       <c r="B196" s="1">
         <v>2.165</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>11</v>
       </c>
       <c r="D196" s="1">
@@ -4526,7 +4550,7 @@
       <c r="B197" s="1">
         <v>1.3819999999999999</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>14</v>
       </c>
       <c r="D197" s="1">
@@ -4540,7 +4564,7 @@
       <c r="B198" s="1">
         <v>2.669</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>17</v>
       </c>
       <c r="D198" s="1">
@@ -4554,7 +4578,7 @@
       <c r="B199" s="1">
         <v>1.73</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>12</v>
       </c>
       <c r="D199" s="1">
@@ -4568,7 +4592,7 @@
       <c r="B200" s="1">
         <v>0.995</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>9</v>
       </c>
       <c r="D200" s="1">
@@ -4582,7 +4606,7 @@
       <c r="B201" s="1">
         <v>2.6259999999999999</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>13</v>
       </c>
       <c r="D201" s="1">
@@ -4596,7 +4620,7 @@
       <c r="B202" s="1">
         <v>2.3610000000000002</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>19</v>
       </c>
       <c r="D202" s="1">
@@ -4610,7 +4634,7 @@
       <c r="B203" s="1">
         <v>2.2370000000000001</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>12</v>
       </c>
       <c r="D203" s="1">
@@ -4624,7 +4648,7 @@
       <c r="B204" s="1">
         <v>1.35</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>7</v>
       </c>
       <c r="D204" s="1">
@@ -4638,7 +4662,7 @@
       <c r="B205" s="1">
         <v>1.4530000000000001</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>11</v>
       </c>
       <c r="D205" s="1">
@@ -4652,7 +4676,7 @@
       <c r="B206" s="1">
         <v>1.1379999999999999</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>6</v>
       </c>
       <c r="D206" s="1">
@@ -4666,7 +4690,7 @@
       <c r="B207" s="1">
         <v>2.2349999999999999</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>15</v>
       </c>
       <c r="D207" s="1">
@@ -4680,7 +4704,7 @@
       <c r="B208" s="1">
         <v>1.9770000000000001</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>10</v>
       </c>
       <c r="D208" s="1">
@@ -4694,7 +4718,7 @@
       <c r="B209" s="1">
         <v>2.5470000000000002</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>18</v>
       </c>
       <c r="D209" s="1">
@@ -4708,7 +4732,7 @@
       <c r="B210" s="1">
         <v>1.873</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>13</v>
       </c>
       <c r="D210" s="1">
@@ -4722,7 +4746,7 @@
       <c r="B211" s="1">
         <v>1.5760000000000001</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>9</v>
       </c>
       <c r="D211" s="1">
@@ -4736,7 +4760,7 @@
       <c r="B212" s="1">
         <v>3.109</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="2">
         <v>19</v>
       </c>
       <c r="D212" s="1">
@@ -4750,7 +4774,7 @@
       <c r="B213" s="1">
         <v>1.9710000000000001</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>10</v>
       </c>
       <c r="D213" s="1">
@@ -4764,7 +4788,7 @@
       <c r="B214" s="1">
         <v>2.2210000000000001</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="2">
         <v>15</v>
       </c>
       <c r="D214" s="1">
@@ -4778,7 +4802,7 @@
       <c r="B215" s="1">
         <v>1.1220000000000001</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>55</v>
       </c>
       <c r="D215" s="1">
@@ -4792,7 +4816,7 @@
       <c r="B216" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>45</v>
       </c>
       <c r="D216" s="1">
@@ -4806,7 +4830,7 @@
       <c r="B217" s="1">
         <v>1.157</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>70</v>
       </c>
       <c r="D217" s="1">
@@ -4820,7 +4844,7 @@
       <c r="B218" s="1">
         <v>1.4490000000000001</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>93</v>
       </c>
       <c r="D218" s="1">
@@ -4834,7 +4858,7 @@
       <c r="B219" s="1">
         <v>0.81100000000000005</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>62</v>
       </c>
       <c r="D219" s="1">
@@ -4848,7 +4872,7 @@
       <c r="B220" s="1">
         <v>1.087</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>58</v>
       </c>
       <c r="D220" s="1">
@@ -4862,7 +4886,7 @@
       <c r="B221" t="s">
         <v>47</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D221" t="s">
@@ -4876,7 +4900,7 @@
       <c r="B222" s="1">
         <v>1.28</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>63</v>
       </c>
       <c r="D222" s="1">
@@ -4890,7 +4914,7 @@
       <c r="B223" s="1">
         <v>1.1020000000000001</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>49</v>
       </c>
       <c r="D223" s="1">
@@ -4904,7 +4928,7 @@
       <c r="B224" s="1">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>47</v>
       </c>
       <c r="D224" s="1">
@@ -4918,7 +4942,7 @@
       <c r="B225" s="1">
         <v>1.62</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>68</v>
       </c>
       <c r="D225" s="1">
@@ -4932,7 +4956,7 @@
       <c r="B226" s="1">
         <v>1.2609999999999999</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>63</v>
       </c>
       <c r="D226" s="1">
@@ -4946,7 +4970,7 @@
       <c r="B227" s="1">
         <v>1.2490000000000001</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>53</v>
       </c>
       <c r="D227" s="1">
@@ -4960,7 +4984,7 @@
       <c r="B228" s="1">
         <v>1.0189999999999999</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>66</v>
       </c>
       <c r="D228" s="1">
@@ -4974,7 +4998,7 @@
       <c r="B229" s="1">
         <v>1.0580000000000001</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>51</v>
       </c>
       <c r="D229" s="1">
@@ -4988,7 +5012,7 @@
       <c r="B230" s="1">
         <v>1.7010000000000001</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>77</v>
       </c>
       <c r="D230" s="1">
@@ -5002,7 +5026,7 @@
       <c r="B231" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>24</v>
       </c>
       <c r="D231" s="1">
@@ -5016,7 +5040,7 @@
       <c r="B232" s="1">
         <v>1.798</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>78</v>
       </c>
       <c r="D232" s="1">
@@ -5030,7 +5054,7 @@
       <c r="B233" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>56</v>
       </c>
       <c r="D233" s="1">
@@ -5044,7 +5068,7 @@
       <c r="B234" s="1">
         <v>1.1990000000000001</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>43</v>
       </c>
       <c r="D234" s="1">
@@ -5055,40 +5079,75 @@
       <c r="A235" t="s">
         <v>238</v>
       </c>
-      <c r="D235" t="e">
-        <v>#DIV/0!</v>
+      <c r="B235" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C235" s="2">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <f>C235/B235</f>
+        <v>85.106382978723403</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>239</v>
       </c>
-      <c r="D236" t="e">
-        <v>#DIV/0!</v>
+      <c r="B236" s="1">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C236" s="2">
+        <v>23</v>
+      </c>
+      <c r="D236">
+        <f>C236/B236</f>
+        <v>59.585492227979273</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>240</v>
       </c>
-      <c r="D237" t="e">
-        <v>#DIV/0!</v>
+      <c r="B237" s="1">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="C237" s="2">
+        <v>61</v>
+      </c>
+      <c r="D237">
+        <f t="shared" ref="D237:D300" si="0">C237/B237</f>
+        <v>50.875729774812342</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>241</v>
       </c>
-      <c r="D238" t="e">
-        <v>#DIV/0!</v>
+      <c r="B238" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="C238" s="2">
+        <v>39</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="0"/>
+        <v>61.708860759493668</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>242</v>
       </c>
-      <c r="D239" t="e">
-        <v>#DIV/0!</v>
+      <c r="B239" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="C239" s="2">
+        <v>56</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="0"/>
+        <v>65.727699530516432</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -5098,10 +5157,11 @@
       <c r="B240" t="s">
         <v>244</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D240" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5109,494 +5169,915 @@
       <c r="A241" t="s">
         <v>245</v>
       </c>
-      <c r="D241" t="e">
-        <v>#DIV/0!</v>
+      <c r="B241">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="0"/>
+        <v>50.904977375565608</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>246</v>
       </c>
-      <c r="D242" t="e">
-        <v>#DIV/0!</v>
+      <c r="B242">
+        <v>0.999</v>
+      </c>
+      <c r="C242" s="2">
+        <v>39</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="0"/>
+        <v>39.039039039039039</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>247</v>
       </c>
-      <c r="D243" t="e">
-        <v>#DIV/0!</v>
+      <c r="B243">
+        <v>1.111</v>
+      </c>
+      <c r="C243" s="2">
+        <v>66</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="0"/>
+        <v>59.405940594059409</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>248</v>
       </c>
-      <c r="D244" t="e">
-        <v>#DIV/0!</v>
+      <c r="B244">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C244" s="2">
+        <v>8</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="0"/>
+        <v>45.977011494252878</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>249</v>
       </c>
-      <c r="D245" t="e">
-        <v>#DIV/0!</v>
+      <c r="B245">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="C245" s="2">
+        <v>63</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="0"/>
+        <v>48.018292682926827</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>250</v>
       </c>
-      <c r="D246" t="e">
-        <v>#DIV/0!</v>
+      <c r="B246">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="C246" s="2">
+        <v>52</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="0"/>
+        <v>50.63291139240507</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>251</v>
       </c>
-      <c r="D247" t="e">
-        <v>#DIV/0!</v>
+      <c r="B247">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C247" s="2">
+        <v>49</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="0"/>
+        <v>46.009389671361504</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>252</v>
       </c>
-      <c r="D248" t="e">
-        <v>#DIV/0!</v>
+      <c r="B248">
+        <v>0.218</v>
+      </c>
+      <c r="C248" s="2">
+        <v>11</v>
+      </c>
+      <c r="D248">
+        <f>C248/B248</f>
+        <v>50.458715596330272</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>253</v>
       </c>
-      <c r="D249" t="e">
-        <v>#DIV/0!</v>
+      <c r="B249">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="C249" s="2">
+        <v>65</v>
+      </c>
+      <c r="D249">
+        <f>C249/B249</f>
+        <v>45.296167247386755</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>254</v>
       </c>
-      <c r="D250" t="e">
-        <v>#DIV/0!</v>
+      <c r="B250">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="C250" s="2">
+        <v>64</v>
+      </c>
+      <c r="D250">
+        <f t="shared" ref="D250:D251" si="1">C250/B250</f>
+        <v>53.024026512013251</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>255</v>
       </c>
-      <c r="D251" t="e">
-        <v>#DIV/0!</v>
+      <c r="B251">
+        <v>1.08</v>
+      </c>
+      <c r="C251" s="2">
+        <v>51</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="1"/>
+        <v>47.222222222222221</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>256</v>
       </c>
-      <c r="D252" t="e">
-        <v>#DIV/0!</v>
+      <c r="B252" s="1">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="C252" s="2">
+        <v>61</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="0"/>
+        <v>35.568513119533527</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>257</v>
       </c>
-      <c r="D253" t="e">
-        <v>#DIV/0!</v>
+      <c r="B253" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C253" s="2">
+        <v>64</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="0"/>
+        <v>49.230769230769226</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>258</v>
       </c>
-      <c r="D254" t="e">
-        <v>#DIV/0!</v>
+      <c r="B254">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="C254" s="2">
+        <v>64</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="0"/>
+        <v>54.421768707482997</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>259</v>
       </c>
-      <c r="D255" t="e">
-        <v>#DIV/0!</v>
+      <c r="B255">
+        <v>1.591</v>
+      </c>
+      <c r="C255" s="2">
+        <v>70</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="0"/>
+        <v>43.997485857950977</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>260</v>
       </c>
-      <c r="D256" t="e">
-        <v>#DIV/0!</v>
+      <c r="B256">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="C256" s="2">
+        <v>64</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="0"/>
+        <v>47.976011994002995</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>261</v>
       </c>
-      <c r="D257" t="e">
-        <v>#DIV/0!</v>
+      <c r="B257">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="C257" s="2">
+        <v>36</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="0"/>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>262</v>
       </c>
-      <c r="D258" t="e">
-        <v>#DIV/0!</v>
+      <c r="B258">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C258" s="2">
+        <v>43</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>263</v>
       </c>
-      <c r="D259" t="e">
-        <v>#DIV/0!</v>
+      <c r="B259">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C259" s="2">
+        <v>30</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="0"/>
+        <v>42.613636363636367</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>264</v>
       </c>
-      <c r="D260" t="e">
-        <v>#DIV/0!</v>
+      <c r="B260">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C260" s="2">
+        <v>42</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="0"/>
+        <v>54.83028720626632</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>265</v>
       </c>
-      <c r="D261" t="e">
-        <v>#DIV/0!</v>
+      <c r="B261">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="C261" s="2">
+        <v>36</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="0"/>
+        <v>48.780487804878049</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>266</v>
       </c>
-      <c r="B262" t="s">
-        <v>267</v>
-      </c>
-      <c r="C262" t="s">
-        <v>267</v>
-      </c>
-      <c r="D262" t="e">
-        <v>#VALUE!</v>
+      <c r="B262">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C262" s="2">
+        <v>24</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="0"/>
+        <v>45.977011494252871</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>268</v>
-      </c>
-      <c r="D263" t="e">
-        <v>#DIV/0!</v>
+        <v>267</v>
+      </c>
+      <c r="B263">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C263" s="2">
+        <v>26</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="0"/>
+        <v>33.678756476683937</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>269</v>
-      </c>
-      <c r="D264" t="e">
-        <v>#DIV/0!</v>
+        <v>268</v>
+      </c>
+      <c r="B264">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C264" s="2">
+        <v>19</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="0"/>
+        <v>59.190031152647975</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="B265" t="s">
+        <v>308</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D265" t="e">
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>271</v>
-      </c>
-      <c r="D266" t="e">
-        <v>#DIV/0!</v>
+        <v>270</v>
+      </c>
+      <c r="B266">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="C266" s="2">
+        <v>23</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="0"/>
+        <v>36.106750392464676</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="B267" t="s">
+        <v>307</v>
+      </c>
+      <c r="C267" t="s">
+        <v>307</v>
       </c>
       <c r="D267" t="e">
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>273</v>
-      </c>
-      <c r="D268" t="e">
-        <v>#DIV/0!</v>
+        <v>272</v>
+      </c>
+      <c r="B268">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C268" s="2">
+        <v>21</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="0"/>
+        <v>36.39514731369151</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>274</v>
-      </c>
-      <c r="D269" t="e">
-        <v>#DIV/0!</v>
+        <v>273</v>
+      </c>
+      <c r="B269">
+        <v>0.439</v>
+      </c>
+      <c r="C269" s="2">
+        <v>20</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="0"/>
+        <v>45.558086560364465</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>275</v>
-      </c>
-      <c r="D270" t="e">
-        <v>#DIV/0!</v>
+        <v>274</v>
+      </c>
+      <c r="B270">
+        <v>0.251</v>
+      </c>
+      <c r="C270" s="2">
+        <v>13</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="0"/>
+        <v>51.792828685258961</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>276</v>
-      </c>
-      <c r="D271" t="e">
-        <v>#DIV/0!</v>
+        <v>275</v>
+      </c>
+      <c r="B271">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C271" s="2">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="0"/>
+        <v>37.735849056603776</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>277</v>
-      </c>
-      <c r="D272" t="e">
-        <v>#DIV/0!</v>
+        <v>276</v>
+      </c>
+      <c r="B272">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="C272" s="2">
+        <v>16</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="0"/>
+        <v>38.186157517899765</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>278</v>
-      </c>
-      <c r="D273" t="e">
-        <v>#DIV/0!</v>
+        <v>277</v>
+      </c>
+      <c r="B273">
+        <v>0.433</v>
+      </c>
+      <c r="C273" s="2">
+        <v>12</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="0"/>
+        <v>27.713625866050808</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>279</v>
-      </c>
-      <c r="D274" t="e">
-        <v>#DIV/0!</v>
+        <v>278</v>
+      </c>
+      <c r="B274">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C274" s="2">
+        <v>31</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="0"/>
+        <v>45.18950437317784</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>280</v>
-      </c>
-      <c r="D275" t="e">
-        <v>#DIV/0!</v>
+        <v>279</v>
+      </c>
+      <c r="B275">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C275" s="2">
+        <v>26</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="0"/>
+        <v>33.678756476683937</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>281</v>
-      </c>
-      <c r="D276" t="e">
-        <v>#DIV/0!</v>
+        <v>280</v>
+      </c>
+      <c r="B276">
+        <v>0.62</v>
+      </c>
+      <c r="C276" s="2">
+        <v>29</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="0"/>
+        <v>46.774193548387096</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>282</v>
-      </c>
-      <c r="D277" t="e">
-        <v>#DIV/0!</v>
+        <v>281</v>
+      </c>
+      <c r="B277">
+        <v>0.626</v>
+      </c>
+      <c r="C277" s="2">
+        <v>32</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="0"/>
+        <v>51.118210862619812</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>283</v>
-      </c>
-      <c r="D278" t="e">
-        <v>#DIV/0!</v>
+        <v>282</v>
+      </c>
+      <c r="B278">
+        <v>0.435</v>
+      </c>
+      <c r="C278" s="2">
+        <v>23</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="0"/>
+        <v>52.873563218390807</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>284</v>
-      </c>
-      <c r="D279" t="e">
-        <v>#DIV/0!</v>
+        <v>283</v>
+      </c>
+      <c r="B279">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C279" s="2">
+        <v>30</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="0"/>
+        <v>56.497175141242934</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>285</v>
-      </c>
-      <c r="D280" t="e">
-        <v>#DIV/0!</v>
+        <v>284</v>
+      </c>
+      <c r="B280">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C280" s="2">
+        <v>24</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="0"/>
+        <v>37.735849056603776</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>286</v>
-      </c>
-      <c r="D281" t="e">
-        <v>#DIV/0!</v>
+        <v>285</v>
+      </c>
+      <c r="B281">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C281" s="2">
+        <v>39</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="0"/>
+        <v>57.522123893805308</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>287</v>
-      </c>
-      <c r="D282" t="e">
-        <v>#DIV/0!</v>
+        <v>286</v>
+      </c>
+      <c r="B282">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="C282" s="2">
+        <v>37</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="0"/>
+        <v>45.962732919254655</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>288</v>
-      </c>
-      <c r="D283" t="e">
-        <v>#DIV/0!</v>
+        <v>287</v>
+      </c>
+      <c r="B283">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C283" s="2">
+        <v>31</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="0"/>
+        <v>45.655375552282763</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>289</v>
-      </c>
-      <c r="D284" t="e">
-        <v>#DIV/0!</v>
+        <v>288</v>
+      </c>
+      <c r="B284">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="C284" s="2">
+        <v>33</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="0"/>
+        <v>43.13725490196078</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>290</v>
-      </c>
-      <c r="D285" t="e">
-        <v>#DIV/0!</v>
+        <v>289</v>
+      </c>
+      <c r="B285">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C285" s="2">
+        <v>34</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="0"/>
+        <v>43.927648578811372</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>291</v>
-      </c>
-      <c r="D286" t="e">
-        <v>#DIV/0!</v>
+        <v>290</v>
+      </c>
+      <c r="B286">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="C286" s="2">
+        <v>39</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="0"/>
+        <v>41.80064308681672</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>292</v>
-      </c>
-      <c r="D287" t="e">
-        <v>#DIV/0!</v>
+        <v>291</v>
+      </c>
+      <c r="B287">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C287" s="2">
+        <v>25</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="0"/>
+        <v>48.638132295719842</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>293</v>
-      </c>
-      <c r="D288" t="e">
-        <v>#DIV/0!</v>
+        <v>292</v>
+      </c>
+      <c r="B288">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C288" s="2">
+        <v>16</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="0"/>
+        <v>33.19502074688797</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>294</v>
-      </c>
-      <c r="D289" t="e">
-        <v>#DIV/0!</v>
+        <v>293</v>
+      </c>
+      <c r="B289">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="C289" s="2">
+        <v>27</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="0"/>
+        <v>38.516405135520685</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>295</v>
-      </c>
-      <c r="D290" t="e">
-        <v>#DIV/0!</v>
+        <v>294</v>
+      </c>
+      <c r="B290">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C290" s="2">
+        <v>19</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="0"/>
+        <v>48.101265822784811</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>296</v>
-      </c>
-      <c r="D291" t="e">
-        <v>#DIV/0!</v>
+        <v>295</v>
+      </c>
+      <c r="B291">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C291" s="2">
+        <v>16</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="0"/>
+        <v>35.087719298245609</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>297</v>
-      </c>
-      <c r="D292" t="e">
-        <v>#DIV/0!</v>
+        <v>296</v>
+      </c>
+      <c r="B292">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C292" s="2">
+        <v>19</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="0"/>
+        <v>32.148900169204737</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>298</v>
-      </c>
-      <c r="D293" t="e">
-        <v>#DIV/0!</v>
+        <v>297</v>
+      </c>
+      <c r="B293">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C293" s="2">
+        <v>14</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="0"/>
+        <v>40.462427745664741</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="B294" t="s">
+        <v>306</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D294" t="e">
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>300</v>
-      </c>
-      <c r="D295" t="e">
-        <v>#DIV/0!</v>
+        <v>299</v>
+      </c>
+      <c r="B295">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C295" s="2">
+        <v>29</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="0"/>
+        <v>37.467700258397933</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>301</v>
-      </c>
-      <c r="D296" t="e">
-        <v>#DIV/0!</v>
+        <v>300</v>
+      </c>
+      <c r="B296">
+        <v>0.63</v>
+      </c>
+      <c r="C296" s="2">
+        <v>19</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="0"/>
+        <v>30.158730158730158</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>302</v>
-      </c>
-      <c r="D297" t="e">
-        <v>#DIV/0!</v>
+        <v>301</v>
+      </c>
+      <c r="B297">
+        <v>0.496</v>
+      </c>
+      <c r="C297" s="2">
+        <v>15</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="0"/>
+        <v>30.241935483870968</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>303</v>
-      </c>
-      <c r="D298" t="e">
-        <v>#DIV/0!</v>
+        <v>302</v>
+      </c>
+      <c r="B298">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C298" s="2">
+        <v>21</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="0"/>
+        <v>41.095890410958901</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>304</v>
-      </c>
-      <c r="D299" t="e">
-        <v>#DIV/0!</v>
+        <v>303</v>
+      </c>
+      <c r="B299">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C299" s="2">
+        <v>20</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="0"/>
+        <v>42.194092827004219</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>305</v>
-      </c>
-      <c r="D300" t="e">
-        <v>#DIV/0!</v>
+        <v>304</v>
+      </c>
+      <c r="B300">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C300" s="2">
+        <v>25</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="0"/>
+        <v>32.851511169513799</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>306</v>
-      </c>
-      <c r="D301" t="e">
-        <v>#DIV/0!</v>
+        <v>305</v>
+      </c>
+      <c r="B301">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="C301" s="2">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <f t="shared" ref="D301" si="2">C301/B301</f>
+        <v>38.860103626943001</v>
       </c>
     </row>
   </sheetData>
